--- a/Documentation/Work Breakdown.xlsx
+++ b/Documentation/Work Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddo\Desktop\git\year-end-csproject-maddox-scott\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35E9DE-2A74-4614-9BF7-21F5B6C6ADFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9C745C-AE83-450C-A830-FF54254964DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,13 +541,13 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>45061</v>
       </c>
       <c r="G4" s="2">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -688,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="2">
-        <v>45065</v>
+        <v>45063</v>
       </c>
       <c r="G5" s="2">
         <v>45067</v>
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>45071</v>
+        <v>45067</v>
       </c>
       <c r="G6" s="2">
-        <v>45073</v>
+        <v>45079</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -749,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>45073</v>
+        <v>45071</v>
       </c>
       <c r="G7" s="2">
         <v>45075</v>
@@ -778,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -807,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -877,7 +877,7 @@
         <v>45080</v>
       </c>
       <c r="G11" s="2">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -903,10 +903,10 @@
         <v>0.25</v>
       </c>
       <c r="F12" s="2">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G12" s="2">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
